--- a/Nomina/src/es/SSII2/resources/Practica2.xlsx
+++ b/Nomina/src/es/SSII2/resources/Practica2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="867">
   <si>
     <t>Nombre</t>
   </si>

--- a/Nomina/src/es/SSII2/resources/Practica2.xlsx
+++ b/Nomina/src/es/SSII2/resources/Practica2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="906">
   <si>
     <t>Nombre</t>
   </si>
@@ -2627,6 +2627,123 @@
   </si>
   <si>
     <t>ES77</t>
+  </si>
+  <si>
+    <t>jumafe00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>anfeal00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>magoar00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>mideal00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>lagapr00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>fellra00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>navaga00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>pimova00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>macoca00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>frroal00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>anjife00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>jebaca00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>anjife01@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>jomeig00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>maveto00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>mapidi00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>ailoma00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>alloll00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>alfedo00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>sasaas00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>mapidi01@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>angese00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>bechca00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>blnubl00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>boalal00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>brfepi00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>cadilo00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>capade00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>cepega00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>camigu00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>cadilo01@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>clpral00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>crsabe00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>dahedo00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>gaalmo00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>cofrlo00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>clmoma00@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>clmoma01@tecnoproyectsl.es</t>
+  </si>
+  <si>
+    <t>crdefl00@tecnoproyectsl.es</t>
   </si>
 </sst>
 </file>
@@ -3107,6 +3224,9 @@
       <c r="O2">
         <v>5</v>
       </c>
+      <c r="P2" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3142,6 +3262,9 @@
       <c r="K3" t="s">
         <v>36</v>
       </c>
+      <c r="P3" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3177,6 +3300,9 @@
       <c r="K4" t="s">
         <v>36</v>
       </c>
+      <c r="P4" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3212,6 +3338,9 @@
       <c r="K5" t="s">
         <v>175</v>
       </c>
+      <c r="P5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3247,6 +3376,9 @@
       <c r="K6" t="s">
         <v>36</v>
       </c>
+      <c r="P6" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3282,6 +3414,9 @@
       <c r="K7" t="s">
         <v>36</v>
       </c>
+      <c r="P7" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3317,6 +3452,9 @@
       <c r="K8" t="s">
         <v>175</v>
       </c>
+      <c r="P8" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3355,6 +3493,9 @@
       <c r="L9" s="1">
         <v>42417</v>
       </c>
+      <c r="P9" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3390,6 +3531,9 @@
       <c r="K10" t="s">
         <v>175</v>
       </c>
+      <c r="P10" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3425,6 +3569,9 @@
       <c r="K11" t="s">
         <v>36</v>
       </c>
+      <c r="P11" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3460,6 +3607,9 @@
       <c r="K12" t="s">
         <v>175</v>
       </c>
+      <c r="P12" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3495,6 +3645,9 @@
       <c r="K13" t="s">
         <v>36</v>
       </c>
+      <c r="P13" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3530,6 +3683,9 @@
       <c r="K14" t="s">
         <v>36</v>
       </c>
+      <c r="P14" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3565,6 +3721,9 @@
       <c r="K15" t="s">
         <v>36</v>
       </c>
+      <c r="P15" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3600,6 +3759,9 @@
       <c r="K16" t="s">
         <v>36</v>
       </c>
+      <c r="P16" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3635,6 +3797,9 @@
       <c r="K17" t="s">
         <v>175</v>
       </c>
+      <c r="P17" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3670,6 +3835,9 @@
       <c r="K18" t="s">
         <v>175</v>
       </c>
+      <c r="P18" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -3705,6 +3873,9 @@
       <c r="K19" t="s">
         <v>175</v>
       </c>
+      <c r="P19" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -3740,6 +3911,9 @@
       <c r="K20" t="s">
         <v>36</v>
       </c>
+      <c r="P20" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3775,6 +3949,9 @@
       <c r="K21" t="s">
         <v>36</v>
       </c>
+      <c r="P21" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3816,6 +3993,9 @@
       <c r="O22">
         <v>2</v>
       </c>
+      <c r="P22" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3854,6 +4034,9 @@
       <c r="L23" s="1">
         <v>42248</v>
       </c>
+      <c r="P23" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3889,6 +4072,9 @@
       <c r="K24" t="s">
         <v>175</v>
       </c>
+      <c r="P24" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3924,6 +4110,9 @@
       <c r="K25" t="s">
         <v>36</v>
       </c>
+      <c r="P25" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3959,6 +4148,9 @@
       <c r="K26" t="s">
         <v>175</v>
       </c>
+      <c r="P26" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3994,6 +4186,9 @@
       <c r="K27" t="s">
         <v>175</v>
       </c>
+      <c r="P27" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4029,6 +4224,9 @@
       <c r="K28" t="s">
         <v>175</v>
       </c>
+      <c r="P28" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4064,6 +4262,9 @@
       <c r="K29" t="s">
         <v>175</v>
       </c>
+      <c r="P29" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4099,6 +4300,9 @@
       <c r="K30" t="s">
         <v>175</v>
       </c>
+      <c r="P30" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4134,6 +4338,9 @@
       <c r="K31" t="s">
         <v>36</v>
       </c>
+      <c r="P31" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4169,6 +4376,9 @@
       <c r="K32" t="s">
         <v>36</v>
       </c>
+      <c r="P32" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4204,6 +4414,9 @@
       <c r="K33" t="s">
         <v>36</v>
       </c>
+      <c r="P33" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -4239,6 +4452,9 @@
       <c r="K34" t="s">
         <v>36</v>
       </c>
+      <c r="P34" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -4274,6 +4490,9 @@
       <c r="K35" t="s">
         <v>36</v>
       </c>
+      <c r="P35" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4309,6 +4528,9 @@
       <c r="K36" t="s">
         <v>175</v>
       </c>
+      <c r="P36" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4344,6 +4566,9 @@
       <c r="K37" t="s">
         <v>175</v>
       </c>
+      <c r="P37" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -4379,6 +4604,9 @@
       <c r="K38" t="s">
         <v>175</v>
       </c>
+      <c r="P38" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -4414,6 +4642,9 @@
       <c r="K39" t="s">
         <v>36</v>
       </c>
+      <c r="P39" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -4448,6 +4679,9 @@
       </c>
       <c r="K40" t="s">
         <v>175</v>
+      </c>
+      <c r="P40" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>
